--- a/Departments/DIAL.xlsx
+++ b/Departments/DIAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6613ACBF-1595-4F02-8D57-C37B59CD7FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22128AB5-268F-4247-926B-7B200E78D74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D956CAF-D510-4B35-B447-129E8352A815}"/>
+    <workbookView xWindow="1740" yWindow="1740" windowWidth="14400" windowHeight="7360" xr2:uid="{3D956CAF-D510-4B35-B447-129E8352A815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>REQ-45 units and permission of instructor.  Students with credit for CMNS 461 may not complete this course for further credit</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,48 +461,48 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/DIAL.xlsx
+++ b/Departments/DIAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22128AB5-268F-4247-926B-7B200E78D74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6B4784-3E11-47E2-AD36-35809BAF13A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1740" windowWidth="14400" windowHeight="7360" xr2:uid="{3D956CAF-D510-4B35-B447-129E8352A815}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D956CAF-D510-4B35-B447-129E8352A815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
